--- a/EA_QUEST3/EA_QUEST3_rep/Tables_12_multipliers.xlsx
+++ b/EA_QUEST3/EA_QUEST3_rep/Tables_12_multipliers.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33689\Documents\GitHub\Exam-Applied-Macroeconomics\EA_QUEST3\EA_QUEST3_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47BE60-704F-4FAD-9E8C-4780AC71B718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E347AEAE-45E0-4709-B758-F29F300B8E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="1" r:id="rId1"/>
     <sheet name="LR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Quarter 1</t>
   </si>
@@ -98,78 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Image to copy: </t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
   </si>
   <si>
     <t>Year 5</t>
@@ -282,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -299,7 +227,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -309,7 +237,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -318,10 +246,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -330,18 +258,18 @@
       <left/>
       <right/>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -349,11 +277,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -362,37 +290,37 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -402,7 +330,7 @@
     <border>
       <left/>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -410,33 +338,33 @@
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -444,89 +372,87 @@
     <border>
       <left/>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +471,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -574,7 +500,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s1047"/>
+                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s1048"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -615,7 +541,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -644,7 +570,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s2068"/>
+                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s2069"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -983,31 +909,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5" style="1" customWidth="true"/>
-    <col min="4" max="4" width="6" style="1" customWidth="true"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="true"/>
-    <col min="6" max="6" width="5" style="1" customWidth="true"/>
-    <col min="7" max="7" width="6" style="1" customWidth="true"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="true"/>
-    <col min="9" max="9" width="5" style="1" customWidth="true"/>
-    <col min="10" max="10" width="6" style="1" customWidth="true"/>
-    <col min="11" max="11" width="5.28515625" style="1" customWidth="true"/>
-    <col min="12" max="12" width="5" style="1" customWidth="true"/>
-    <col min="13" max="13" width="6" style="1" customWidth="true"/>
-    <col min="14" max="14" width="5.28515625" style="1" customWidth="true"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" thickBot="true"/>
-    <row r="2" ht="15" thickTop="true">
+    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15" thickTop="1">
       <c r="B2" s="4"/>
       <c r="C2" s="21" t="s">
         <v>0</v>
@@ -1030,46 +954,46 @@
       <c r="M2" s="22"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:14">
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1034,7 @@
         <v>0.62720682654020121</v>
       </c>
     </row>
-    <row r="5" ht="15" thickBot="true">
+    <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1151,8 +1075,8 @@
         <v>0.7278407354534171</v>
       </c>
     </row>
-    <row r="6" ht="15" thickTop="true"/>
-    <row r="11">
+    <row r="6" spans="2:14" ht="15" thickTop="1"/>
+    <row r="11" spans="2:14">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1090,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:N3" numberStoredAsText="true"/>
+    <ignoredError sqref="C3:N3" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1177,31 +1101,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D417769-54D5-4768-BDEF-383B95488C3B}">
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5" style="1" customWidth="true"/>
-    <col min="4" max="4" width="6" style="1" customWidth="true"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="true"/>
-    <col min="6" max="6" width="5" style="1" customWidth="true"/>
-    <col min="7" max="7" width="6" style="1" customWidth="true"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="true"/>
-    <col min="9" max="9" width="5" style="1" customWidth="true"/>
-    <col min="10" max="10" width="6" style="1" customWidth="true"/>
-    <col min="11" max="11" width="5.28515625" style="1" customWidth="true"/>
-    <col min="12" max="12" width="5.7109375" style="1" customWidth="true"/>
-    <col min="13" max="13" width="6" style="1" customWidth="true"/>
-    <col min="14" max="14" width="5.28515625" style="1" customWidth="true"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" thickBot="true"/>
-    <row r="2" ht="15" thickTop="true">
+    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15" thickTop="1">
       <c r="B2" s="4"/>
       <c r="C2" s="25" t="s">
         <v>6</v>
@@ -1219,51 +1141,51 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="22" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M2" s="22"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:14">
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1217,7 @@
         <v>0.52720660418909437</v>
       </c>
       <c r="L4" s="12">
-        <v>-0.071982580943218244</v>
+        <v>-7.1982580943218244E-2</v>
       </c>
       <c r="M4" s="10">
         <v>0.30075851126680264</v>
@@ -1304,7 +1226,7 @@
         <v>0.60174015390550895</v>
       </c>
     </row>
-    <row r="5" ht="15" thickBot="true">
+    <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1345,8 +1267,8 @@
         <v>0.59528690926547334</v>
       </c>
     </row>
-    <row r="6" ht="15" thickTop="true"/>
-    <row r="9">
+    <row r="6" spans="2:14" ht="15" thickTop="1"/>
+    <row r="9" spans="2:14">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1360,7 +1282,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:N3" numberStoredAsText="true"/>
+    <ignoredError sqref="C3:N3" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/EA_QUEST3/EA_QUEST3_rep/Tables_12_multipliers.xlsx
+++ b/EA_QUEST3/EA_QUEST3_rep/Tables_12_multipliers.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E347AEAE-45E0-4709-B758-F29F300B8E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="1" r:id="rId1"/>
     <sheet name="LR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="876">
   <si>
     <t>Quarter 1</t>
   </si>
@@ -101,6 +101,2526 @@
   </si>
   <si>
     <t>Year 5</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
   </si>
   <si>
     <t>5%</t>
@@ -210,7 +2730,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -227,7 +2747,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -237,7 +2757,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -246,10 +2766,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -258,18 +2778,18 @@
       <left/>
       <right/>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -277,11 +2797,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -290,37 +2810,37 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -330,7 +2850,7 @@
     <border>
       <left/>
       <right style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -338,33 +2858,33 @@
     </border>
     <border>
       <left style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -372,87 +2892,89 @@
     <border>
       <left/>
       <right style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +2993,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -541,7 +3063,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -909,29 +3431,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5" style="1" customWidth="true"/>
+    <col min="4" max="4" width="6" style="1" customWidth="true"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="true"/>
+    <col min="6" max="6" width="5" style="1" customWidth="true"/>
+    <col min="7" max="7" width="6" style="1" customWidth="true"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="true"/>
+    <col min="9" max="9" width="5" style="1" customWidth="true"/>
+    <col min="10" max="10" width="6" style="1" customWidth="true"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="true"/>
+    <col min="12" max="12" width="5" style="1" customWidth="true"/>
+    <col min="13" max="13" width="6" style="1" customWidth="true"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="true"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1"/>
-    <row r="2" spans="2:14" ht="15" thickTop="1">
+    <row r="1" ht="15" thickBot="true"/>
+    <row r="2" ht="15" thickTop="true">
       <c r="B2" s="4"/>
       <c r="C2" s="21" t="s">
         <v>0</v>
@@ -954,129 +3476,129 @@
       <c r="M2" s="22"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3">
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>852</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>853</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>854</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>15</v>
+        <v>855</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>856</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>17</v>
+        <v>857</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>18</v>
+        <v>858</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>859</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>20</v>
+        <v>860</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>861</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>862</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>23</v>
+        <v>863</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9">
-        <v>0.62758875966169558</v>
+        <v>0.61687222682822762</v>
       </c>
       <c r="D4" s="19">
-        <v>0.7454262629605557</v>
+        <v>0.72378051628330786</v>
       </c>
       <c r="E4" s="11">
-        <v>0.83773943949393104</v>
+        <v>0.81466616075171527</v>
       </c>
       <c r="F4" s="9">
-        <v>0.4059391235840587</v>
+        <v>0.36474699528244259</v>
       </c>
       <c r="G4" s="10">
-        <v>0.5514724297081699</v>
+        <v>0.50939508922018806</v>
       </c>
       <c r="H4" s="11">
-        <v>0.69988152192378905</v>
+        <v>0.6673634906322542</v>
       </c>
       <c r="I4" s="9">
-        <v>0.40863833942322114</v>
+        <v>0.40819885876047313</v>
       </c>
       <c r="J4" s="10">
-        <v>0.55040224307747898</v>
+        <v>0.53147844638238539</v>
       </c>
       <c r="K4" s="11">
-        <v>0.693170678186943</v>
+        <v>0.66342576516738372</v>
       </c>
       <c r="L4" s="12">
-        <v>0.33535369962374473</v>
+        <v>0.28850328602217767</v>
       </c>
       <c r="M4" s="19">
-        <v>0.46604013673461281</v>
+        <v>0.43472261486047664</v>
       </c>
       <c r="N4" s="13">
-        <v>0.62720682654020121</v>
+        <v>0.59639667285795439</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1">
+    <row r="5" ht="15" thickBot="true">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="14">
-        <v>0.62758875966169558</v>
+        <v>0.61687222682822762</v>
       </c>
       <c r="D5" s="15">
-        <v>0.7454262629605557</v>
+        <v>0.72378051628330786</v>
       </c>
       <c r="E5" s="16">
-        <v>0.83773943949393104</v>
+        <v>0.81466616075171527</v>
       </c>
       <c r="F5" s="14">
-        <v>0.53482683551990551</v>
+        <v>0.53473447210991776</v>
       </c>
       <c r="G5" s="15">
-        <v>0.66253112547019</v>
+        <v>0.63673299603174849</v>
       </c>
       <c r="H5" s="16">
-        <v>0.78156263854824015</v>
+        <v>0.74119736842553741</v>
       </c>
       <c r="I5" s="14">
-        <v>0.49156060616354025</v>
+        <v>0.50315833907382723</v>
       </c>
       <c r="J5" s="15">
-        <v>0.62586348089583743</v>
+        <v>0.60230852960561054</v>
       </c>
       <c r="K5" s="16">
-        <v>0.75795765663072756</v>
+        <v>0.71512092390669346</v>
       </c>
       <c r="L5" s="17">
-        <v>0.45321237283857546</v>
+        <v>0.464162881123518</v>
       </c>
       <c r="M5" s="20">
-        <v>0.59114444923364473</v>
+        <v>0.56706495322509942</v>
       </c>
       <c r="N5" s="18">
-        <v>0.7278407354534171</v>
+        <v>0.68901446633782659</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1"/>
-    <row r="11" spans="2:14">
+    <row r="6" ht="15" thickTop="true"/>
+    <row r="11">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +3612,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:N3" numberStoredAsText="1"/>
+    <ignoredError sqref="C3:N3" numberStoredAsText="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1101,29 +3623,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D417769-54D5-4768-BDEF-383B95488C3B}">
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5" style="1" customWidth="true"/>
+    <col min="4" max="4" width="6" style="1" customWidth="true"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="true"/>
+    <col min="6" max="6" width="5" style="1" customWidth="true"/>
+    <col min="7" max="7" width="6" style="1" customWidth="true"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="true"/>
+    <col min="9" max="9" width="5" style="1" customWidth="true"/>
+    <col min="10" max="10" width="6" style="1" customWidth="true"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="true"/>
+    <col min="12" max="12" width="5.7109375" style="1" customWidth="true"/>
+    <col min="13" max="13" width="6" style="1" customWidth="true"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="true"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1"/>
-    <row r="2" spans="2:14" ht="15" thickTop="1">
+    <row r="1" ht="15" thickBot="true"/>
+    <row r="2" ht="15" thickTop="true">
       <c r="B2" s="4"/>
       <c r="C2" s="25" t="s">
         <v>6</v>
@@ -1146,129 +3668,129 @@
       <c r="M2" s="22"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3">
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>864</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>865</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>26</v>
+        <v>866</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>867</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>868</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>29</v>
+        <v>869</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>30</v>
+        <v>870</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>871</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>32</v>
+        <v>872</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>873</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>874</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>35</v>
+        <v>875</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9">
-        <v>0.21903644618936527</v>
+        <v>0.17954081926241383</v>
       </c>
       <c r="D4" s="10">
-        <v>0.36004904768079338</v>
+        <v>0.32990558177222346</v>
       </c>
       <c r="E4" s="11">
-        <v>0.50895006833736844</v>
+        <v>0.50279003659254817</v>
       </c>
       <c r="F4" s="9">
-        <v>0.15844426712319934</v>
+        <v>0.10445002220609571</v>
       </c>
       <c r="G4" s="10">
-        <v>0.32086574929422235</v>
+        <v>0.2999930690862776</v>
       </c>
       <c r="H4" s="11">
-        <v>0.48979789472470581</v>
+        <v>0.50576668739417341</v>
       </c>
       <c r="I4" s="9">
-        <v>0.10099034185351025</v>
+        <v>0.028217034272898858</v>
       </c>
       <c r="J4" s="10">
-        <v>0.31152645297948944</v>
+        <v>0.28825892187068031</v>
       </c>
       <c r="K4" s="11">
-        <v>0.52720660418909437</v>
+        <v>0.56497634861566348</v>
       </c>
       <c r="L4" s="12">
-        <v>-7.1982580943218244E-2</v>
+        <v>-0.1398608013595429</v>
       </c>
       <c r="M4" s="10">
-        <v>0.30075851126680264</v>
+        <v>0.28199766814005961</v>
       </c>
       <c r="N4" s="13">
-        <v>0.60174015390550895</v>
+        <v>0.67362549897691992</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1">
+    <row r="5" ht="15" thickBot="true">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="14">
-        <v>0.37698367373305647</v>
+        <v>0.37363745891486433</v>
       </c>
       <c r="D5" s="15">
-        <v>0.5124477988185776</v>
+        <v>0.48978971789987413</v>
       </c>
       <c r="E5" s="16">
-        <v>0.65262412876035647</v>
+        <v>0.62971607615919201</v>
       </c>
       <c r="F5" s="14">
-        <v>0.3421761174719159</v>
+        <v>0.32852992246317486</v>
       </c>
       <c r="G5" s="15">
-        <v>0.47435083847995557</v>
+        <v>0.45191574602462736</v>
       </c>
       <c r="H5" s="16">
-        <v>0.61306962251588204</v>
+        <v>0.60528323331372147</v>
       </c>
       <c r="I5" s="14">
-        <v>0.30612381490430995</v>
+        <v>0.29705692769097197</v>
       </c>
       <c r="J5" s="15">
-        <v>0.45512129251832539</v>
+        <v>0.43262360315351117</v>
       </c>
       <c r="K5" s="16">
-        <v>0.59951423501524759</v>
+        <v>0.59563507786691472</v>
       </c>
       <c r="L5" s="17">
-        <v>0.28267834288236204</v>
+        <v>0.2833091546624289</v>
       </c>
       <c r="M5" s="15">
-        <v>0.44461526208735691</v>
+        <v>0.42175181545024837</v>
       </c>
       <c r="N5" s="18">
-        <v>0.59528690926547334</v>
+        <v>0.59030102574729182</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1"/>
-    <row r="9" spans="2:14">
+    <row r="6" ht="15" thickTop="true"/>
+    <row r="9">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1282,7 +3804,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:N3" numberStoredAsText="1"/>
+    <ignoredError sqref="C3:N3" numberStoredAsText="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
